--- a/data/trans_dic/P37A$medicoedad-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoedad-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.002426439124531511</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.006574539638480945</v>
+        <v>0.006574539638480944</v>
       </c>
     </row>
     <row r="5">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002160407473557064</v>
+        <v>0.002175984137358382</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001132312492933594</v>
+        <v>0.001112288588439934</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -746,34 +746,34 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01233359081359511</v>
+        <v>0.01684438820911685</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0215414266255422</v>
+        <v>0.02013441143062216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01257992552282104</v>
+        <v>0.01256590793305542</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.01273947261145731</v>
+        <v>0.01005271992627469</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.048614907392565</v>
+        <v>0.05111341903116994</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.007885018480153343</v>
+        <v>0.008891637621173808</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.011148491396503</v>
+        <v>0.01094871819456041</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.008577036811391747</v>
+        <v>0.007590799501443151</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02186678328584098</v>
+        <v>0.02239126816930117</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.005501223077468527</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.008741793188341132</v>
+        <v>0.008741793188341136</v>
       </c>
     </row>
     <row r="8">
@@ -833,13 +833,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.001366580016515378</v>
+        <v>0.001378073761777907</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005159556466028128</v>
+        <v>0.005158477577043518</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001737810873130062</v>
+        <v>0.001559013137110334</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.001620241582658626</v>
+        <v>0.001560466187562019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.00225749622759574</v>
+        <v>0.00224690231042371</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.003587034025436773</v>
+        <v>0.004106789769014998</v>
       </c>
     </row>
     <row r="9">
@@ -875,37 +875,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.01378156979016902</v>
+        <v>0.01383169429120896</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01604006956063638</v>
+        <v>0.01799079751400933</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03148733697328462</v>
+        <v>0.03196496276668184</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01233671370638503</v>
+        <v>0.01354615942638908</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01432483717673397</v>
+        <v>0.01063081018055644</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0161483318067376</v>
+        <v>0.01535840566757508</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01270617631618593</v>
+        <v>0.01209693915798093</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.005998296945049044</v>
+        <v>0.006228846481945686</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.009359818191050851</v>
+        <v>0.009225813705321202</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01307242369904374</v>
+        <v>0.01212528918960474</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01843579212585203</v>
+        <v>0.01752573027497385</v>
       </c>
     </row>
     <row r="10">
@@ -965,37 +965,37 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.001371503093294989</v>
+        <v>0.001379727117432078</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001416446624151401</v>
+        <v>0.001411029579960272</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001646873827406638</v>
+        <v>0.001642418868447079</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001483792238677606</v>
+        <v>0.002458238972258592</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008311063403368306</v>
+        <v>0.008280342283442212</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0008505089409223225</v>
+        <v>0.0008623109755713218</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.001370661096667891</v>
+        <v>0.001365737332047091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001419823564732002</v>
+        <v>0.001471206145357966</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.006016073763169803</v>
+        <v>0.006445870289415903</v>
       </c>
     </row>
     <row r="12">
@@ -1007,37 +1007,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01363434364249668</v>
+        <v>0.01369169195493066</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.007599494065925464</v>
+        <v>0.007718579850354151</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01871876941090257</v>
+        <v>0.01637103658261373</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01411998098791753</v>
+        <v>0.01434846843954063</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01265148860222665</v>
+        <v>0.009727005211024575</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01689431290916488</v>
+        <v>0.01737884458103015</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02618600485484592</v>
+        <v>0.02563966904309729</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0080249502854085</v>
+        <v>0.007466140896254983</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.008284148037673968</v>
+        <v>0.009021456073483106</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01012511325437525</v>
+        <v>0.009586867690569063</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01768530916951143</v>
+        <v>0.01833355106734585</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0.02048048885409257</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.01890497033407191</v>
+        <v>0.01890497033407192</v>
       </c>
     </row>
     <row r="14">
@@ -1099,37 +1099,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003466831072334965</v>
+        <v>0.003484011464864734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01015044633874504</v>
+        <v>0.01079714484033222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01034284149015399</v>
+        <v>0.01025868534095286</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.001803310151202835</v>
+        <v>0.001810808781321558</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01134195130054803</v>
+        <v>0.01129435936963812</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01171916169633504</v>
+        <v>0.01169637764584222</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0009345735533144318</v>
+        <v>0.0008783929665847234</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.003762454234914694</v>
+        <v>0.00368194843289336</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01291838710979617</v>
+        <v>0.01364485778783456</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01351660871333254</v>
+        <v>0.01323693562745548</v>
       </c>
     </row>
     <row r="15">
@@ -1140,40 +1140,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.008743512449399806</v>
+        <v>0.008792089376948625</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02098728999228314</v>
+        <v>0.02035191733091897</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03356006667309817</v>
+        <v>0.03421057464569669</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03272597556479009</v>
+        <v>0.03346339901126397</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01430872971016359</v>
+        <v>0.01495500534723526</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01770168481643273</v>
+        <v>0.01792356349791649</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03642748239607263</v>
+        <v>0.03606558443039379</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02784527372071545</v>
+        <v>0.02857872114750832</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.009404915011050615</v>
+        <v>0.008074993845494307</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01540612693914168</v>
+        <v>0.01565368155113207</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02956773789874651</v>
+        <v>0.03079666338357926</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02692026187710743</v>
+        <v>0.0262224838090515</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.08089494504303212</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08291966892928983</v>
+        <v>0.08291966892928984</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06128118022447887</v>
@@ -1221,7 +1221,7 @@
         <v>0.07897854295538784</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08024208600148049</v>
+        <v>0.0802420860014805</v>
       </c>
     </row>
     <row r="17">
@@ -1232,40 +1232,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03773994692966987</v>
+        <v>0.03850908150194506</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0480997868055737</v>
+        <v>0.04879608423117979</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05336962640797163</v>
+        <v>0.05440218289197862</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05938780174955202</v>
+        <v>0.06028508048186836</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04184028076890209</v>
+        <v>0.04140905459035913</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05947928130238413</v>
+        <v>0.05789670626188557</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05611111765417743</v>
+        <v>0.0570275632615932</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06743381920183927</v>
+        <v>0.06664982591894826</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0469282897401861</v>
+        <v>0.04605579411567483</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05827704007307186</v>
+        <v>0.05922793883265216</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06308287282047707</v>
+        <v>0.06125355933036665</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06810164989535078</v>
+        <v>0.06818867705919894</v>
       </c>
     </row>
     <row r="18">
@@ -1276,40 +1276,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08414718352228101</v>
+        <v>0.08394710842521654</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09818499076782744</v>
+        <v>0.1000569693576973</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1069669814683799</v>
+        <v>0.1075360888469804</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09991186526151716</v>
+        <v>0.09943243782440686</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08917407050112031</v>
+        <v>0.08825213628038203</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1133188599106346</v>
+        <v>0.1095731426303859</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1067601960507445</v>
+        <v>0.1070798744397239</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1016128932584461</v>
+        <v>0.1025866297569756</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07895585180806473</v>
+        <v>0.07979934416663934</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09507410322041891</v>
+        <v>0.09564910951178882</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09751848960801277</v>
+        <v>0.09871434617901308</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09402846050490039</v>
+        <v>0.09317076447281451</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>0.3235451539896304</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4652343168768036</v>
+        <v>0.4652343168768037</v>
       </c>
     </row>
     <row r="20">
@@ -1368,40 +1368,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2046929957559035</v>
+        <v>0.2042193884439056</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.376796933478398</v>
+        <v>0.3712267129155761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2966031842476213</v>
+        <v>0.2909519328006249</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4092312750605955</v>
+        <v>0.4076207595320689</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2766234809702078</v>
+        <v>0.2731745695202253</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2636608413549412</v>
+        <v>0.2624824355534591</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2628660384095448</v>
+        <v>0.2607395411214322</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4457082848617664</v>
+        <v>0.4459895996812504</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2545721355716653</v>
+        <v>0.2558961422171636</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.329325025324146</v>
+        <v>0.3297356071932098</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2891211315065449</v>
+        <v>0.2873194787750553</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4375481148006142</v>
+        <v>0.4379773073567927</v>
       </c>
     </row>
     <row r="21">
@@ -1412,40 +1412,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2971482080133973</v>
+        <v>0.3032672613347044</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4956910837205228</v>
+        <v>0.4946713968321063</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3954865088398436</v>
+        <v>0.4015888051589844</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4916083620122284</v>
+        <v>0.4889429043714003</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3730979343932712</v>
+        <v>0.3670660157631782</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3616715526444841</v>
+        <v>0.3599534264140533</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3574172388548095</v>
+        <v>0.3572798645351971</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5159302637972513</v>
+        <v>0.5143930180313112</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3222009233302723</v>
+        <v>0.3246733931545951</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4048340839307638</v>
+        <v>0.405762817134651</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3586270768176847</v>
+        <v>0.3598995607446271</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4929797039029578</v>
+        <v>0.4924490474381772</v>
       </c>
     </row>
     <row r="22">
@@ -1469,7 +1469,7 @@
         <v>0.5500336931287422</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6749031534268553</v>
+        <v>0.6749031534268551</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.5522984133880477</v>
@@ -1481,7 +1481,7 @@
         <v>0.5013692007142598</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6694543801477189</v>
+        <v>0.6694543801477187</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.5393811896348114</v>
@@ -1493,7 +1493,7 @@
         <v>0.5204004017087291</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6716358263912171</v>
+        <v>0.671635826391217</v>
       </c>
     </row>
     <row r="23">
@@ -1504,40 +1504,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4534816777281065</v>
+        <v>0.4499103846612834</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4589808013739789</v>
+        <v>0.4710414697085439</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4946951504146093</v>
+        <v>0.4929369106153748</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6304363931853191</v>
+        <v>0.626851135976504</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4991123707309464</v>
+        <v>0.4907369455439451</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4933394672520898</v>
+        <v>0.4928261149883079</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4453062140454081</v>
+        <v>0.4467095067312724</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6337488948397801</v>
+        <v>0.6366635833801988</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4977931887630246</v>
+        <v>0.4965421042160952</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5045308531233924</v>
+        <v>0.500466566048965</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4821883852822302</v>
+        <v>0.4801196755572631</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6426446909351805</v>
+        <v>0.6452939948894988</v>
       </c>
     </row>
     <row r="24">
@@ -1548,40 +1548,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5900652524769378</v>
+        <v>0.5913779243762558</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6031424411810399</v>
+        <v>0.6000168266915061</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6007927422215874</v>
+        <v>0.608302386336519</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7179914184270568</v>
+        <v>0.7181019823116802</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6135697137696968</v>
+        <v>0.6076209231668085</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6007781305417678</v>
+        <v>0.5992348828683444</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5573872127271988</v>
+        <v>0.5587297133796723</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6998650779113587</v>
+        <v>0.7002415066321426</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5844005614337597</v>
+        <v>0.5855485821286452</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5865617569910896</v>
+        <v>0.5852413899152319</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5608406471802194</v>
+        <v>0.5614458973978148</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6963872088086379</v>
+        <v>0.6990952730953515</v>
       </c>
     </row>
     <row r="25">
@@ -1629,7 +1629,7 @@
         <v>0.09939869202452667</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1466428763272692</v>
+        <v>0.1466428763272691</v>
       </c>
     </row>
     <row r="26">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05588560710907647</v>
+        <v>0.05522563835083841</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08157477656124505</v>
+        <v>0.08148469719695309</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08251764776099688</v>
+        <v>0.08146585207475021</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1218333246614174</v>
+        <v>0.1219206995011497</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.08803966563814594</v>
+        <v>0.08710788386777465</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.09406107068018743</v>
+        <v>0.0927273353634392</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.09555607283351561</v>
+        <v>0.09557347775142078</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1518771270525234</v>
+        <v>0.1527594749014992</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07361392191425796</v>
+        <v>0.07460706973572293</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.09056488623935383</v>
+        <v>0.09040590729409177</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.09199583501170452</v>
+        <v>0.09223653387040122</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1396183588121367</v>
+        <v>0.1394652620701939</v>
       </c>
     </row>
     <row r="27">
@@ -1684,40 +1684,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07208518335037416</v>
+        <v>0.07166536996176889</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1030108647035812</v>
+        <v>0.1029604769066043</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1014745033663597</v>
+        <v>0.101313119906393</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1426525193764617</v>
+        <v>0.1423055821761036</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1077504567253004</v>
+        <v>0.1082211288988326</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1136043484719666</v>
+        <v>0.1143481543220087</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1184223030943533</v>
+        <v>0.11903135490471</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1697305658404291</v>
+        <v>0.1709446230161244</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08710515162361278</v>
+        <v>0.08757061138066542</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1048251879597027</v>
+        <v>0.1050950438484197</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.107465981377888</v>
+        <v>0.1076333126606079</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1533954659968922</v>
+        <v>0.1538854691637485</v>
       </c>
     </row>
     <row r="28">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
@@ -2029,34 +2029,34 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6094</v>
+        <v>8322</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9783</v>
+        <v>9144</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5277</v>
+        <v>5271</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>5042</v>
+        <v>3978</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17623</v>
+        <v>18529</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7582</v>
+        <v>8550</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9859</v>
+        <v>9683</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6992</v>
+        <v>6188</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16844</v>
+        <v>17248</v>
       </c>
     </row>
     <row r="8">
@@ -2160,13 +2160,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>979</v>
+        <v>879</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
@@ -2184,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2102</v>
+        <v>2024</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2605</v>
+        <v>2593</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3510</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="11">
@@ -2202,37 +2202,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>9469</v>
+        <v>9504</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9472</v>
+        <v>10623</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15016</v>
+        <v>15244</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7717</v>
+        <v>8473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8742</v>
+        <v>6488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9100</v>
+        <v>8655</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6375</v>
+        <v>6069</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8164</v>
+        <v>8477</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>12143</v>
+        <v>11969</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15086</v>
+        <v>13993</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>18042</v>
+        <v>17151</v>
       </c>
     </row>
     <row r="12">
@@ -2336,37 +2336,37 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>981</v>
+        <v>1626</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5179</v>
+        <v>5160</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1130</v>
+        <v>1146</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1889</v>
+        <v>1957</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7484</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="15">
@@ -2378,37 +2378,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>9297</v>
+        <v>9336</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5085</v>
+        <v>5164</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11621</v>
+        <v>10164</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9739</v>
+        <v>9897</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8993</v>
+        <v>6914</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11174</v>
+        <v>11494</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16319</v>
+        <v>15978</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10660</v>
+        <v>9918</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11537</v>
+        <v>12564</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13471</v>
+        <v>12755</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>22001</v>
+        <v>22807</v>
       </c>
     </row>
     <row r="16">
@@ -2514,37 +2514,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2131</v>
+        <v>2141</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6558</v>
+        <v>6975</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7246</v>
+        <v>7187</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>7362</v>
+        <v>7331</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8636</v>
+        <v>8619</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>967</v>
+        <v>909</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4631</v>
+        <v>4532</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>16731</v>
+        <v>17672</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>19430</v>
+        <v>19028</v>
       </c>
     </row>
     <row r="19">
@@ -2555,40 +2555,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4539</v>
+        <v>4564</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12899</v>
+        <v>12509</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21681</v>
+        <v>22102</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22928</v>
+        <v>23445</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7378</v>
+        <v>7711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10908</v>
+        <v>11044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>23644</v>
+        <v>23409</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20519</v>
+        <v>21059</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9732</v>
+        <v>8356</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>18962</v>
+        <v>19267</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>38294</v>
+        <v>39886</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>38698</v>
+        <v>37695</v>
       </c>
     </row>
     <row r="20">
@@ -2691,40 +2691,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14594</v>
+        <v>14892</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20655</v>
+        <v>20954</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25506</v>
+        <v>26000</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>36188</v>
+        <v>36734</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>16903</v>
+        <v>16729</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>26635</v>
+        <v>25926</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>27879</v>
+        <v>28334</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>41057</v>
+        <v>40580</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>37106</v>
+        <v>36416</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>51122</v>
+        <v>51956</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>61491</v>
+        <v>59708</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>82962</v>
+        <v>83068</v>
       </c>
     </row>
     <row r="23">
@@ -2735,40 +2735,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32541</v>
+        <v>32463</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>42163</v>
+        <v>42967</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51121</v>
+        <v>51393</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>60881</v>
+        <v>60589</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36025</v>
+        <v>35653</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>50744</v>
+        <v>49067</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>53044</v>
+        <v>53203</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>61868</v>
+        <v>62460</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>62430</v>
+        <v>63097</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>83402</v>
+        <v>83906</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>95058</v>
+        <v>96223</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>114546</v>
+        <v>113501</v>
       </c>
     </row>
     <row r="24">
@@ -2871,40 +2871,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>59890</v>
+        <v>59751</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>116726</v>
+        <v>115001</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>99163</v>
+        <v>97274</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>166590</v>
+        <v>165934</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>94864</v>
+        <v>93681</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>93335</v>
+        <v>92918</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>99301</v>
+        <v>98497</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>195740</v>
+        <v>195863</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>161785</v>
+        <v>162626</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>218600</v>
+        <v>218873</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>205881</v>
+        <v>204598</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>370273</v>
+        <v>370637</v>
       </c>
     </row>
     <row r="27">
@@ -2915,40 +2915,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>86941</v>
+        <v>88731</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>153558</v>
+        <v>153242</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>132223</v>
+        <v>134263</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>200124</v>
+        <v>199039</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>127948</v>
+        <v>125879</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>128030</v>
+        <v>127422</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>135019</v>
+        <v>134967</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>226579</v>
+        <v>225904</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>204764</v>
+        <v>206335</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>268722</v>
+        <v>269338</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>255375</v>
+        <v>256282</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>417182</v>
+        <v>416733</v>
       </c>
     </row>
     <row r="28">
@@ -3051,40 +3051,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>95178</v>
+        <v>94429</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>114677</v>
+        <v>117690</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>127136</v>
+        <v>126684</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>195560</v>
+        <v>194448</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>166658</v>
+        <v>163861</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>191899</v>
+        <v>191699</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>178198</v>
+        <v>178759</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>294445</v>
+        <v>295800</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>270695</v>
+        <v>270015</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>322309</v>
+        <v>319713</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>316878</v>
+        <v>315519</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>497926</v>
+        <v>499978</v>
       </c>
     </row>
     <row r="31">
@@ -3095,40 +3095,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>123845</v>
+        <v>124120</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>150696</v>
+        <v>149915</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>154403</v>
+        <v>156332</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>222720</v>
+        <v>222754</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>204876</v>
+        <v>202889</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>233690</v>
+        <v>233090</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>223049</v>
+        <v>223586</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>325164</v>
+        <v>325339</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>317792</v>
+        <v>318416</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>374713</v>
+        <v>373870</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>368566</v>
+        <v>368964</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>539566</v>
+        <v>541664</v>
       </c>
     </row>
     <row r="32">
@@ -3231,40 +3231,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>183112</v>
+        <v>180949</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>279539</v>
+        <v>279230</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>280094</v>
+        <v>276524</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>430408</v>
+        <v>430717</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>297503</v>
+        <v>294355</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>334698</v>
+        <v>329953</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>338703</v>
+        <v>338764</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>567558</v>
+        <v>570855</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>489955</v>
+        <v>496565</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>632604</v>
+        <v>631493</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>638349</v>
+        <v>640019</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1014986</v>
+        <v>1013873</v>
       </c>
     </row>
     <row r="35">
@@ -3275,40 +3275,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>236190</v>
+        <v>234815</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>352995</v>
+        <v>352823</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>344440</v>
+        <v>343892</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>503957</v>
+        <v>502732</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>364110</v>
+        <v>365701</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>404239</v>
+        <v>406886</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>419753</v>
+        <v>421912</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>634275</v>
+        <v>638812</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>579749</v>
+        <v>582847</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>732213</v>
+        <v>734098</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>745695</v>
+        <v>746856</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1115141</v>
+        <v>1118704</v>
       </c>
     </row>
     <row r="36">
